--- a/data/trans_dic/P41D_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P41D_2023-Estudios-trans_dic.xlsx
@@ -628,7 +628,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.0652935053792079</v>
+        <v>0.06651326135139871</v>
       </c>
     </row>
     <row r="9">
@@ -639,13 +639,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.6818716386765183</v>
+        <v>0.6921624205521438</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.8332377183464053</v>
+        <v>0.8339595167729561</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.5671650936971463</v>
+        <v>0.5869035488584048</v>
       </c>
     </row>
     <row r="10">
@@ -693,10 +693,10 @@
       </c>
       <c r="C12" s="5" t="inlineStr"/>
       <c r="D12" s="5" t="n">
-        <v>0.6702272451153647</v>
+        <v>0.7075521360900805</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.4712263029127058</v>
+        <v>0.4570111484342623</v>
       </c>
     </row>
     <row r="13">
@@ -711,7 +711,7 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.08907864004972729</v>
+        <v>0.08907864004972728</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>0.3056370857670518</v>
@@ -731,10 +731,10 @@
         <v>0</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.0956913238435765</v>
+        <v>0.06771678849977691</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.05840139744656048</v>
+        <v>0.06196749173355762</v>
       </c>
     </row>
     <row r="15">
@@ -745,13 +745,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.4449293567574725</v>
+        <v>0.4326676233035622</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.6032664253426726</v>
+        <v>0.5777709102159907</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3803628276665241</v>
+        <v>0.3872939146200574</v>
       </c>
     </row>
     <row r="16">
@@ -956,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>721</v>
+        <v>734</v>
       </c>
     </row>
     <row r="11">
@@ -967,13 +967,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>5002</v>
+        <v>5078</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>3083</v>
+        <v>3086</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>6260</v>
+        <v>6478</v>
       </c>
     </row>
     <row r="12">
@@ -1038,10 +1038,10 @@
       </c>
       <c r="C15" s="6" t="inlineStr"/>
       <c r="D15" s="6" t="n">
-        <v>5005</v>
+        <v>5283</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>6739</v>
+        <v>6536</v>
       </c>
     </row>
     <row r="16">
@@ -1093,10 +1093,10 @@
         <v>0</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>1137</v>
+        <v>804</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1521</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="19">
@@ -1107,13 +1107,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>6305</v>
+        <v>6131</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>7167</v>
+        <v>6864</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>9908</v>
+        <v>10089</v>
       </c>
     </row>
     <row r="20">
